--- a/Financials/Yearly/KAI_YR_FIN.xlsx
+++ b/Financials/Yearly/KAI_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CA451-EBEF-4FE8-B406-FCFA3D9B2EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAI" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,142 +686,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E7" s="2">
         <v>43099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42371</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42007</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41636</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41272</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>633800</v>
+      </c>
+      <c r="E8" s="3">
         <v>515000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>414100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>390100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>402100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>344500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>331800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>335500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>284000</v>
+        <v>355500</v>
       </c>
       <c r="E9" s="3">
-        <v>225700</v>
+        <v>283900</v>
       </c>
       <c r="F9" s="3">
+        <v>225600</v>
+      </c>
+      <c r="G9" s="3">
         <v>210000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>223800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>186800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>185900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>190200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>231000</v>
+        <v>278300</v>
       </c>
       <c r="E10" s="3">
-        <v>188400</v>
+        <v>231100</v>
       </c>
       <c r="F10" s="3">
+        <v>188500</v>
+      </c>
+      <c r="G10" s="3">
         <v>180100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>178400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>157700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>145800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>145200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,35 +845,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,36 +902,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
-        <v>-300</v>
-      </c>
       <c r="F14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,9 +962,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -916,62 +976,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>454300</v>
+        <v>545200</v>
       </c>
       <c r="E17" s="3">
-        <v>368600</v>
+        <v>453400</v>
       </c>
       <c r="F17" s="3">
+        <v>367500</v>
+      </c>
+      <c r="G17" s="3">
         <v>340000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>360000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>311200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>295300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>296800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>60800</v>
+        <v>88600</v>
       </c>
       <c r="E18" s="3">
-        <v>45600</v>
+        <v>61600</v>
       </c>
       <c r="F18" s="3">
+        <v>46600</v>
+      </c>
+      <c r="G18" s="3">
         <v>50100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,143 +1050,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E21" s="3">
         <v>80600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>45100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E23" s="3">
         <v>57700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E24" s="3">
         <v>28900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1144,63 +1227,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E26" s="3">
         <v>28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E27" s="3">
         <v>28300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1225,36 +1317,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
         <v>2800</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1279,9 +1377,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1306,63 +1407,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E33" s="3">
         <v>31100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1387,68 +1497,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E35" s="3">
         <v>31100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E38" s="2">
         <v>43099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42371</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42007</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41636</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41272</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1460,8 +1579,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1473,35 +1593,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E41" s="3">
         <v>75400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1526,117 +1650,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E43" s="3">
         <v>92000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>70900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62700</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E44" s="3">
         <v>84900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>55200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>62800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>50500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>13700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>11900</v>
       </c>
       <c r="F45" s="3">
         <v>11900</v>
       </c>
       <c r="G45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>252800</v>
+      </c>
+      <c r="E46" s="3">
         <v>266000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>207300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>205100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>174300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1661,63 +1800,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E48" s="3">
         <v>79700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>42300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>39200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E49" s="3">
         <v>401000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>204200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>157100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>174800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>179800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>134000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>135000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1742,9 +1890,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1769,36 +1920,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1823,36 +1980,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>725700</v>
+      </c>
+      <c r="E54" s="3">
         <v>761100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>470700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>415500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>413700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>442200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>358900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>358400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1864,8 +2027,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1877,49 +2041,53 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>35500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -1928,119 +2096,134 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E59" s="3">
         <v>96100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>132200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>96600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E61" s="3">
         <v>241400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E62" s="3">
         <v>55000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2065,9 +2248,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2092,9 +2278,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2119,36 +2308,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>352800</v>
+      </c>
+      <c r="E66" s="3">
         <v>430100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>188100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>149500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>135900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2160,8 +2355,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2186,9 +2382,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2213,9 +2412,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2240,9 +2442,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2267,36 +2472,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E72" s="3">
         <v>342900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>321100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>297300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>270200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>248200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>230300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>198700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2321,9 +2532,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2348,9 +2562,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2375,36 +2592,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E76" s="3">
         <v>331000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>282600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>266600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>264300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>269500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>248600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>222500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2429,68 +2652,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E80" s="2">
         <v>43099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42371</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42007</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41636</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41272</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E81" s="3">
         <v>31100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2502,35 +2734,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E83" s="3">
         <v>19400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2555,9 +2791,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2582,9 +2821,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2609,9 +2851,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2636,9 +2881,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2663,36 +2911,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E89" s="3">
         <v>65200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2704,35 +2958,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2757,9 +3015,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2784,36 +3045,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-221900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2825,35 +3092,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-6300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2878,9 +3149,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2905,9 +3179,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2932,88 +3209,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>151400</v>
+        <v>-74200</v>
       </c>
       <c r="E100" s="3">
-        <v>22700</v>
+        <v>150500</v>
       </c>
       <c r="F100" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-13600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>-3200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5700</v>
+        <v>9500</v>
       </c>
       <c r="F101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>3900</v>
+        <v>-30700</v>
       </c>
       <c r="E102" s="3">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="F102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/KAI_YR_FIN.xlsx
+++ b/Financials/Yearly/KAI_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CA451-EBEF-4FE8-B406-FCFA3D9B2EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KAI" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,34 +651,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,7 +708,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,7 +738,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +768,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,7 +798,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +812,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,7 +842,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,7 +872,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -937,7 +902,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,7 +932,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,7 +943,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +973,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1003,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1017,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1047,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1077,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,7 +1107,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1137,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1167,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1197,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1227,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1257,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1287,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1317,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1347,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1377,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +1407,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1437,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1467,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1532,12 +1497,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1532,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1546,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,7 +1560,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1625,7 +1590,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1620,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1650,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,7 +1680,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1710,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1775,7 +1740,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +1770,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1800,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1865,7 +1830,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1895,7 +1860,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1925,7 +1890,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1955,7 +1920,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1985,7 +1950,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2015,7 +1980,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +1994,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2043,7 +2008,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2073,7 +2038,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2103,7 +2068,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2133,7 +2098,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2163,7 +2128,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2193,7 +2158,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2223,7 +2188,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2218,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2248,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2313,7 +2278,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -2343,7 +2308,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2357,7 +2322,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2352,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2417,7 +2382,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2447,7 +2412,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2477,7 +2442,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -2507,7 +2472,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2502,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2532,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2597,7 +2562,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -2627,7 +2592,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2657,12 +2622,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2657,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -2722,7 +2687,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2736,7 +2701,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2766,7 +2731,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2796,7 +2761,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +2791,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2821,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2886,7 +2851,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2916,7 +2881,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -2946,7 +2911,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2960,7 +2925,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -2990,7 +2955,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3020,7 +2985,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3050,7 +3015,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -3080,7 +3045,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3094,7 +3059,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3124,7 +3089,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3119,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3184,7 +3149,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3214,7 +3179,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -3244,7 +3209,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3274,7 +3239,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
